--- a/BattlePets/Assets/Data/AbilitySheet.xlsx
+++ b/BattlePets/Assets/Data/AbilitySheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,78 @@
   </si>
   <si>
     <t>RechargeTime</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>Refreshing Air</t>
+  </si>
+  <si>
+    <t>Dense Cloud</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Slipstream</t>
+  </si>
+  <si>
+    <t>Hot Springs</t>
+  </si>
+  <si>
+    <t>Phoenix Ashes</t>
+  </si>
+  <si>
+    <t>Ice-Cold Water</t>
+  </si>
+  <si>
+    <t>Rocky Fist</t>
+  </si>
+  <si>
+    <t>Rolling Boulder</t>
+  </si>
+  <si>
+    <t>Thrown Rock</t>
+  </si>
+  <si>
+    <t>Fire Beam</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Fiery Punch</t>
+  </si>
+  <si>
+    <t>Flowing Stream</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Icy Punch</t>
   </si>
 </sst>
 </file>
@@ -356,14 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -387,6 +460,278 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
